--- a/biology/Histoire de la zoologie et de la botanique/Johann_Nepomuk_von_Laicharting/Johann_Nepomuk_von_Laicharting.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Nepomuk_von_Laicharting/Johann_Nepomuk_von_Laicharting.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johann Nepomuk von Laicharting[1] est un entomologiste autrichien, né le 4 février 1754 à Innsbruck et mort le 7 mai 1797 dans cette même ville.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johann Nepomuk von Laicharting est un entomologiste autrichien, né le 4 février 1754 à Innsbruck et mort le 7 mai 1797 dans cette même ville.
 Il enseigne l’histoire naturelle à Innsbruck et décrit de nombreux genres et espèces de coléoptères.
 Il fait paraître Verzeichniss und Beschreibung der Tyroler-Insecten. 1. Teil. Kaferartige Insecten en un volume (1781). C’était probablement le début d’un ouvrage qui devait couvrir tous les insectes d’Autriche.
 </t>
@@ -513,7 +525,9 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le descripteur de Potentilla anglica Laichard.
 Laichard. est l’abréviation botanique standard de Johann Nepomuk von Laicharting.
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Traduction de l'article de langue anglaise de Wikipédia (version du 5 janvier 2006).
 Notices d'autorité : VIAF ISNI IdRef LCCN GND Pays-Bas Tchéquie Grèce WorldCat 
@@ -580,7 +596,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Également connu sous le nom de « Johann Nepomuk von Laicharding », forme expliquant par ailleurs son abréviation en botanique.
